--- a/requiment/BTL.xlsx
+++ b/requiment/BTL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\VisualStudio\Lap_trinh_mang\requiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE4E7B3-84B4-4A77-9B91-C2197110DBA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0540865-2D22-4C55-9B2E-A0740BCDD8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -632,7 +632,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -30688,12 +30688,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30861,15 +30858,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D358572-9621-4BDB-9C23-36BCCD0E2891}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F42778B-7C69-4030-B573-00DEB7D80BF9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30893,10 +30894,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F42778B-7C69-4030-B573-00DEB7D80BF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D358572-9621-4BDB-9C23-36BCCD0E2891}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>